--- a/Day12/seoul_gu_info.xlsx
+++ b/Day12/seoul_gu_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,502 +436,472 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>docity</t>
+          <t>도</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>do</t>
+          <t>구</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>city</t>
+          <t>경도</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>latitude</t>
+          <t>위도</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
           <t>강남구</t>
         </is>
       </c>
+      <c r="C2" t="n">
+        <v>127.049555555555</v>
+      </c>
       <c r="D2" t="n">
-        <v>127.049555555555</v>
-      </c>
-      <c r="E2" t="n">
         <v>37.514575</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
           <t>강동구</t>
         </is>
       </c>
+      <c r="C3" t="n">
+        <v>127.125863888888</v>
+      </c>
       <c r="D3" t="n">
-        <v>127.125863888888</v>
-      </c>
-      <c r="E3" t="n">
         <v>37.5273666666666</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
           <t>강북구</t>
         </is>
       </c>
+      <c r="C4" t="n">
+        <v>127.027719444444</v>
+      </c>
       <c r="D4" t="n">
-        <v>127.027719444444</v>
-      </c>
-      <c r="E4" t="n">
         <v>37.6369555555555</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
           <t>강서구</t>
         </is>
       </c>
+      <c r="C5" t="n">
+        <v>126.851675</v>
+      </c>
       <c r="D5" t="n">
-        <v>126.851675</v>
-      </c>
-      <c r="E5" t="n">
         <v>37.5481555555555</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
           <t>관악구</t>
         </is>
       </c>
+      <c r="C6" t="n">
+        <v>126.953844444444</v>
+      </c>
       <c r="D6" t="n">
-        <v>126.953844444444</v>
-      </c>
-      <c r="E6" t="n">
         <v>37.4753861111111</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
           <t>광진구</t>
         </is>
       </c>
+      <c r="C7" t="n">
+        <v>127.084533333333</v>
+      </c>
       <c r="D7" t="n">
-        <v>127.084533333333</v>
-      </c>
-      <c r="E7" t="n">
         <v>37.5357388888888</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
           <t>구로구</t>
         </is>
       </c>
+      <c r="C8" t="n">
+        <v>126.889597222222</v>
+      </c>
       <c r="D8" t="n">
-        <v>126.889597222222</v>
-      </c>
-      <c r="E8" t="n">
         <v>37.49265</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
           <t>금천구</t>
         </is>
       </c>
+      <c r="C9" t="n">
+        <v>126.904197222222</v>
+      </c>
       <c r="D9" t="n">
-        <v>126.904197222222</v>
-      </c>
-      <c r="E9" t="n">
         <v>37.4491083333333</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
           <t>노원구</t>
         </is>
       </c>
+      <c r="C10" t="n">
+        <v>127.058388888888</v>
+      </c>
       <c r="D10" t="n">
-        <v>127.058388888888</v>
-      </c>
-      <c r="E10" t="n">
         <v>37.6514611111111</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
           <t>도봉구</t>
         </is>
       </c>
+      <c r="C11" t="n">
+        <v>127.049522222222</v>
+      </c>
       <c r="D11" t="n">
-        <v>127.049522222222</v>
-      </c>
-      <c r="E11" t="n">
         <v>37.6658333333333</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
           <t>동대문구</t>
         </is>
       </c>
+      <c r="C12" t="n">
+        <v>127.042141666666</v>
+      </c>
       <c r="D12" t="n">
-        <v>127.042141666666</v>
-      </c>
-      <c r="E12" t="n">
         <v>37.571625</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
           <t>동작구</t>
         </is>
       </c>
+      <c r="C13" t="n">
+        <v>126.941575</v>
+      </c>
       <c r="D13" t="n">
-        <v>126.941575</v>
-      </c>
-      <c r="E13" t="n">
         <v>37.5096555555555</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
           <t>마포구</t>
         </is>
       </c>
+      <c r="C14" t="n">
+        <v>126.910530555555</v>
+      </c>
       <c r="D14" t="n">
-        <v>126.910530555555</v>
-      </c>
-      <c r="E14" t="n">
         <v>37.5607055555555</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
           <t>서대문구</t>
         </is>
       </c>
+      <c r="C15" t="n">
+        <v>126.938897222222</v>
+      </c>
       <c r="D15" t="n">
-        <v>126.938897222222</v>
-      </c>
-      <c r="E15" t="n">
         <v>37.5763666666666</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
           <t>서초구</t>
         </is>
       </c>
+      <c r="C16" t="n">
+        <v>127.034811111111</v>
+      </c>
       <c r="D16" t="n">
-        <v>127.034811111111</v>
-      </c>
-      <c r="E16" t="n">
         <v>37.4807861111111</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
           <t>성동구</t>
         </is>
       </c>
+      <c r="C17" t="n">
+        <v>127.039</v>
+      </c>
       <c r="D17" t="n">
-        <v>127.039</v>
-      </c>
-      <c r="E17" t="n">
         <v>37.5606111111111</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
           <t>성북구</t>
         </is>
       </c>
+      <c r="C18" t="n">
+        <v>127.020333333333</v>
+      </c>
       <c r="D18" t="n">
-        <v>127.020333333333</v>
-      </c>
-      <c r="E18" t="n">
         <v>37.5863833333333</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
           <t>송파구</t>
         </is>
       </c>
+      <c r="C19" t="n">
+        <v>127.107930555555</v>
+      </c>
       <c r="D19" t="n">
-        <v>127.107930555555</v>
-      </c>
-      <c r="E19" t="n">
         <v>37.5117555555555</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
           <t>양천구</t>
         </is>
       </c>
+      <c r="C20" t="n">
+        <v>126.868708333333</v>
+      </c>
       <c r="D20" t="n">
-        <v>126.868708333333</v>
-      </c>
-      <c r="E20" t="n">
         <v>37.5142305555555</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
           <t>영등포구</t>
         </is>
       </c>
+      <c r="C21" t="n">
+        <v>126.898341666666</v>
+      </c>
       <c r="D21" t="n">
-        <v>126.898341666666</v>
-      </c>
-      <c r="E21" t="n">
         <v>37.5236111111111</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
           <t>용산구</t>
         </is>
       </c>
+      <c r="C22" t="n">
+        <v>126.967522222222</v>
+      </c>
       <c r="D22" t="n">
-        <v>126.967522222222</v>
-      </c>
-      <c r="E22" t="n">
         <v>37.5360944444444</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
           <t>은평구</t>
         </is>
       </c>
+      <c r="C23" t="n">
+        <v>126.931241666666</v>
+      </c>
       <c r="D23" t="n">
-        <v>126.931241666666</v>
-      </c>
-      <c r="E23" t="n">
         <v>37.5999694444444</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr"/>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
           <t>종로구</t>
         </is>
       </c>
+      <c r="C24" t="n">
+        <v>126.981641666666</v>
+      </c>
       <c r="D24" t="n">
-        <v>126.981641666666</v>
-      </c>
-      <c r="E24" t="n">
         <v>37.5703777777777</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr"/>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
           <t>중구</t>
         </is>
       </c>
+      <c r="C25" t="n">
+        <v>126.999641666666</v>
+      </c>
       <c r="D25" t="n">
-        <v>126.999641666666</v>
-      </c>
-      <c r="E25" t="n">
         <v>37.5610027777777</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr"/>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
           <t>중랑구</t>
         </is>
       </c>
+      <c r="C26" t="n">
+        <v>127.094777777777</v>
+      </c>
       <c r="D26" t="n">
-        <v>127.094777777777</v>
-      </c>
-      <c r="E26" t="n">
         <v>37.6038055555555</v>
       </c>
     </row>
